--- a/biology/Microbiologie/Rhodobacter/Rhodobacter.xlsx
+++ b/biology/Microbiologie/Rhodobacter/Rhodobacter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhodobacter est un genre de bactéries. Les cellules sont de formes ovoïdes ou en bâtonnet. Ce sont des bactéries photosynthétiques aquatiques, rencontrées dans l'environnement marin ou l'eau douce. Rhodobacter exprime différents modes respiratoires (aérobie ou anaérobie) et métaboliques, lui permettant de survivre dans un grand nombre d'habitats.
 Rhodobacter sphaeroides est une espèce très étudiée en recherche fondamentale, notamment sur l'étude de la photosynthèse bactérienne, l'adaptation à l'environnement et l'évolution. Elle présente par ailleurs l'originalité de posséder deux chromosomes, (un grand et un petit) ce qui est rare chez les procaryotes.
@@ -513,7 +525,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhodobacter apigmentum
 Rhodobacter azotoformans
@@ -524,7 +538,7 @@
 Rhodobacter massiliensis
 Rhodobacter sphaeroides
 Rhodobacter veldkampii
-Selon NCBI  (8 janv. 2011)[1] :
+Selon NCBI  (8 janv. 2011) :
 Rhodobacter aestuarii
 Rhodobacter apigmentum
 Rhodobacter azotoformans
